--- a/retail-power-compare/raw/monthly_standard_offer_by_utility.xlsx
+++ b/retail-power-compare/raw/monthly_standard_offer_by_utility.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darrenfishell/Documents/GitHub/data-projects/retail-power-compare/raw/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Darren/Github clones/data-projects/retail-power-compare/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F6726B1-27BA-9C4C-BD2C-1A4096FB5068}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7DA82CB-1F00-DE4A-AB1A-E08B2E697282}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="44640" yWindow="2580" windowWidth="26840" windowHeight="15940" xr2:uid="{CAE620D4-FD76-9349-A05C-D8713AA01DE9}"/>
+    <workbookView xWindow="-38400" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{CAE620D4-FD76-9349-A05C-D8713AA01DE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -409,8 +409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18C04127-8BFC-3147-AA20-C61BC9431E16}">
   <dimension ref="A1:D289"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="E75" sqref="E75"/>
+    <sheetView tabSelected="1" topLeftCell="A235" workbookViewId="0">
+      <selection activeCell="F255" sqref="F255"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/retail-power-compare/raw/monthly_standard_offer_by_utility.xlsx
+++ b/retail-power-compare/raw/monthly_standard_offer_by_utility.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Darren/Github clones/data-projects/retail-power-compare/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7DA82CB-1F00-DE4A-AB1A-E08B2E697282}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E42DAB9-753D-9646-B3E1-3B995A84107B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{CAE620D4-FD76-9349-A05C-D8713AA01DE9}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="27020" xr2:uid="{CAE620D4-FD76-9349-A05C-D8713AA01DE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -409,8 +409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18C04127-8BFC-3147-AA20-C61BC9431E16}">
   <dimension ref="A1:D289"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A235" workbookViewId="0">
-      <selection activeCell="F255" sqref="F255"/>
+    <sheetView tabSelected="1" topLeftCell="A186" workbookViewId="0">
+      <selection activeCell="B211" sqref="B211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/retail-power-compare/raw/monthly_standard_offer_by_utility.xlsx
+++ b/retail-power-compare/raw/monthly_standard_offer_by_utility.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Darren/Github clones/data-projects/retail-power-compare/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E42DAB9-753D-9646-B3E1-3B995A84107B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C151948-DE52-B542-B749-7EEC0518D562}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="27020" xr2:uid="{CAE620D4-FD76-9349-A05C-D8713AA01DE9}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="20100" windowHeight="27020" xr2:uid="{CAE620D4-FD76-9349-A05C-D8713AA01DE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="8">
   <si>
     <t>Utility</t>
   </si>
@@ -45,9 +45,6 @@
     <t>CMP</t>
   </si>
   <si>
-    <t>Emera Maine</t>
-  </si>
-  <si>
     <t>BHE</t>
   </si>
   <si>
@@ -56,18 +53,27 @@
   <si>
     <t>Rate</t>
   </si>
+  <si>
+    <t>Versant Power</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Lucida Grande"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -90,9 +96,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -407,15 +414,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18C04127-8BFC-3147-AA20-C61BC9431E16}">
-  <dimension ref="A1:D289"/>
+  <dimension ref="A1:D361"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A186" workbookViewId="0">
-      <selection activeCell="B211" sqref="B211"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D357" sqref="D357"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.6640625" customWidth="1"/>
+    <col min="2" max="2" width="32.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -429,7 +437,7 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1493,10 +1501,10 @@
         <v>43800</v>
       </c>
       <c r="B98" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C98" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D98">
         <v>8.3695000000000006E-2</v>
@@ -1507,10 +1515,10 @@
         <v>43770</v>
       </c>
       <c r="B99" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C99" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D99">
         <v>8.3695000000000006E-2</v>
@@ -1521,10 +1529,10 @@
         <v>43739</v>
       </c>
       <c r="B100" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C100" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D100">
         <v>8.3695000000000006E-2</v>
@@ -1535,10 +1543,10 @@
         <v>43709</v>
       </c>
       <c r="B101" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C101" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D101">
         <v>8.3695000000000006E-2</v>
@@ -1549,10 +1557,10 @@
         <v>43678</v>
       </c>
       <c r="B102" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C102" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D102">
         <v>8.3695000000000006E-2</v>
@@ -1563,10 +1571,10 @@
         <v>43647</v>
       </c>
       <c r="B103" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C103" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D103">
         <v>8.3695000000000006E-2</v>
@@ -1577,10 +1585,10 @@
         <v>43617</v>
       </c>
       <c r="B104" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C104" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D104">
         <v>8.3695000000000006E-2</v>
@@ -1591,10 +1599,10 @@
         <v>43586</v>
       </c>
       <c r="B105" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C105" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D105">
         <v>8.3695000000000006E-2</v>
@@ -1605,10 +1613,10 @@
         <v>43556</v>
       </c>
       <c r="B106" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C106" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D106">
         <v>8.3695000000000006E-2</v>
@@ -1619,10 +1627,10 @@
         <v>43525</v>
       </c>
       <c r="B107" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C107" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D107">
         <v>8.3695000000000006E-2</v>
@@ -1633,10 +1641,10 @@
         <v>43497</v>
       </c>
       <c r="B108" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C108" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D108">
         <v>8.3695000000000006E-2</v>
@@ -1647,10 +1655,10 @@
         <v>43466</v>
       </c>
       <c r="B109" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C109" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D109">
         <v>8.3695000000000006E-2</v>
@@ -1661,10 +1669,10 @@
         <v>43435</v>
       </c>
       <c r="B110" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C110" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D110">
         <v>7.2249999999999995E-2</v>
@@ -1675,10 +1683,10 @@
         <v>43405</v>
       </c>
       <c r="B111" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C111" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D111">
         <v>7.2249999999999995E-2</v>
@@ -1689,10 +1697,10 @@
         <v>43374</v>
       </c>
       <c r="B112" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C112" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D112">
         <v>7.2249999999999995E-2</v>
@@ -1703,10 +1711,10 @@
         <v>43344</v>
       </c>
       <c r="B113" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C113" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D113">
         <v>7.2249999999999995E-2</v>
@@ -1717,10 +1725,10 @@
         <v>43313</v>
       </c>
       <c r="B114" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C114" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D114">
         <v>7.2249999999999995E-2</v>
@@ -1731,10 +1739,10 @@
         <v>43282</v>
       </c>
       <c r="B115" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C115" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D115">
         <v>7.2249999999999995E-2</v>
@@ -1745,10 +1753,10 @@
         <v>43252</v>
       </c>
       <c r="B116" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C116" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D116">
         <v>7.2249999999999995E-2</v>
@@ -1759,10 +1767,10 @@
         <v>43221</v>
       </c>
       <c r="B117" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C117" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D117">
         <v>7.2249999999999995E-2</v>
@@ -1773,10 +1781,10 @@
         <v>43191</v>
       </c>
       <c r="B118" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C118" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D118">
         <v>7.2249999999999995E-2</v>
@@ -1787,10 +1795,10 @@
         <v>43160</v>
       </c>
       <c r="B119" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C119" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D119">
         <v>7.2249999999999995E-2</v>
@@ -1801,10 +1809,10 @@
         <v>43132</v>
       </c>
       <c r="B120" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C120" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D120">
         <v>7.2249999999999995E-2</v>
@@ -1815,10 +1823,10 @@
         <v>43101</v>
       </c>
       <c r="B121" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C121" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D121">
         <v>7.2249999999999995E-2</v>
@@ -1829,10 +1837,10 @@
         <v>43070</v>
       </c>
       <c r="B122" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C122" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D122">
         <v>6.3219999999999998E-2</v>
@@ -1843,10 +1851,10 @@
         <v>43040</v>
       </c>
       <c r="B123" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C123" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D123">
         <v>6.3219999999999998E-2</v>
@@ -1857,10 +1865,10 @@
         <v>43009</v>
       </c>
       <c r="B124" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C124" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D124">
         <v>6.3219999999999998E-2</v>
@@ -1871,10 +1879,10 @@
         <v>42979</v>
       </c>
       <c r="B125" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C125" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D125">
         <v>6.3219999999999998E-2</v>
@@ -1885,10 +1893,10 @@
         <v>42948</v>
       </c>
       <c r="B126" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C126" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D126">
         <v>6.3219999999999998E-2</v>
@@ -1899,10 +1907,10 @@
         <v>42917</v>
       </c>
       <c r="B127" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C127" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D127">
         <v>6.3219999999999998E-2</v>
@@ -1913,10 +1921,10 @@
         <v>42887</v>
       </c>
       <c r="B128" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C128" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D128">
         <v>6.3219999999999998E-2</v>
@@ -1927,10 +1935,10 @@
         <v>42856</v>
       </c>
       <c r="B129" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C129" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D129">
         <v>6.3219999999999998E-2</v>
@@ -1941,10 +1949,10 @@
         <v>42826</v>
       </c>
       <c r="B130" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C130" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D130">
         <v>6.3219999999999998E-2</v>
@@ -1955,10 +1963,10 @@
         <v>42795</v>
       </c>
       <c r="B131" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C131" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D131">
         <v>6.3219999999999998E-2</v>
@@ -1969,10 +1977,10 @@
         <v>42767</v>
       </c>
       <c r="B132" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C132" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D132">
         <v>6.3219999999999998E-2</v>
@@ -1983,10 +1991,10 @@
         <v>42736</v>
       </c>
       <c r="B133" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C133" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D133">
         <v>6.3219999999999998E-2</v>
@@ -1997,10 +2005,10 @@
         <v>42705</v>
       </c>
       <c r="B134" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C134" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D134">
         <v>6.6299999999999998E-2</v>
@@ -2011,10 +2019,10 @@
         <v>42675</v>
       </c>
       <c r="B135" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C135" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D135">
         <v>6.6299999999999998E-2</v>
@@ -2025,10 +2033,10 @@
         <v>42644</v>
       </c>
       <c r="B136" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C136" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D136">
         <v>6.6299999999999998E-2</v>
@@ -2039,10 +2047,10 @@
         <v>42614</v>
       </c>
       <c r="B137" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C137" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D137">
         <v>6.6299999999999998E-2</v>
@@ -2053,10 +2061,10 @@
         <v>42583</v>
       </c>
       <c r="B138" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C138" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D138">
         <v>6.6299999999999998E-2</v>
@@ -2067,10 +2075,10 @@
         <v>42552</v>
       </c>
       <c r="B139" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C139" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D139">
         <v>6.6299999999999998E-2</v>
@@ -2081,10 +2089,10 @@
         <v>42522</v>
       </c>
       <c r="B140" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C140" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D140">
         <v>6.6299999999999998E-2</v>
@@ -2095,10 +2103,10 @@
         <v>42491</v>
       </c>
       <c r="B141" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C141" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D141">
         <v>6.6299999999999998E-2</v>
@@ -2109,10 +2117,10 @@
         <v>42461</v>
       </c>
       <c r="B142" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C142" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D142">
         <v>6.6299999999999998E-2</v>
@@ -2123,10 +2131,10 @@
         <v>42430</v>
       </c>
       <c r="B143" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C143" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D143">
         <v>6.6299999999999998E-2</v>
@@ -2137,10 +2145,10 @@
         <v>42401</v>
       </c>
       <c r="B144" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C144" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D144">
         <v>6.5939999999999999E-2</v>
@@ -2151,10 +2159,10 @@
         <v>42370</v>
       </c>
       <c r="B145" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C145" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D145">
         <v>6.5939999999999999E-2</v>
@@ -2165,10 +2173,10 @@
         <v>42339</v>
       </c>
       <c r="B146" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C146" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D146">
         <v>6.5042199999999994E-2</v>
@@ -2179,10 +2187,10 @@
         <v>42309</v>
       </c>
       <c r="B147" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C147" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D147">
         <v>6.5042199999999994E-2</v>
@@ -2193,10 +2201,10 @@
         <v>42278</v>
       </c>
       <c r="B148" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C148" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D148">
         <v>6.5042199999999994E-2</v>
@@ -2207,10 +2215,10 @@
         <v>42248</v>
       </c>
       <c r="B149" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C149" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D149">
         <v>6.5042199999999994E-2</v>
@@ -2221,10 +2229,10 @@
         <v>42217</v>
       </c>
       <c r="B150" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C150" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D150">
         <v>6.5042199999999994E-2</v>
@@ -2235,10 +2243,10 @@
         <v>42186</v>
       </c>
       <c r="B151" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C151" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D151">
         <v>6.5042199999999994E-2</v>
@@ -2249,10 +2257,10 @@
         <v>42156</v>
       </c>
       <c r="B152" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C152" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D152">
         <v>6.5042199999999994E-2</v>
@@ -2263,10 +2271,10 @@
         <v>42125</v>
       </c>
       <c r="B153" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C153" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D153">
         <v>6.5042199999999994E-2</v>
@@ -2277,10 +2285,10 @@
         <v>42095</v>
       </c>
       <c r="B154" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C154" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D154">
         <v>6.5042199999999994E-2</v>
@@ -2291,10 +2299,10 @@
         <v>42064</v>
       </c>
       <c r="B155" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C155" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D155">
         <v>6.5042199999999994E-2</v>
@@ -2305,10 +2313,10 @@
         <v>42036</v>
       </c>
       <c r="B156" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C156" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D156">
         <v>7.5759999999999994E-2</v>
@@ -2319,10 +2327,10 @@
         <v>42005</v>
       </c>
       <c r="B157" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C157" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D157">
         <v>7.5759999999999994E-2</v>
@@ -2333,10 +2341,10 @@
         <v>41974</v>
       </c>
       <c r="B158" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C158" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D158">
         <v>7.5759999999999994E-2</v>
@@ -2347,10 +2355,10 @@
         <v>41944</v>
       </c>
       <c r="B159" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C159" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D159">
         <v>7.5759999999999994E-2</v>
@@ -2361,10 +2369,10 @@
         <v>41913</v>
       </c>
       <c r="B160" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C160" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D160">
         <v>7.5759999999999994E-2</v>
@@ -2375,10 +2383,10 @@
         <v>41883</v>
       </c>
       <c r="B161" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C161" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D161">
         <v>7.5759999999999994E-2</v>
@@ -2389,10 +2397,10 @@
         <v>41852</v>
       </c>
       <c r="B162" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C162" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D162">
         <v>7.5759999999999994E-2</v>
@@ -2403,10 +2411,10 @@
         <v>41821</v>
       </c>
       <c r="B163" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C163" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D163">
         <v>7.5759999999999994E-2</v>
@@ -2417,10 +2425,10 @@
         <v>41791</v>
       </c>
       <c r="B164" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C164" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D164">
         <v>7.5759999999999994E-2</v>
@@ -2431,10 +2439,10 @@
         <v>41760</v>
       </c>
       <c r="B165" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C165" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D165">
         <v>7.5759999999999994E-2</v>
@@ -2445,10 +2453,10 @@
         <v>41730</v>
       </c>
       <c r="B166" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C166" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D166">
         <v>7.5759999999999994E-2</v>
@@ -2459,10 +2467,10 @@
         <v>41699</v>
       </c>
       <c r="B167" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C167" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D167">
         <v>7.5759999999999994E-2</v>
@@ -2473,10 +2481,10 @@
         <v>41671</v>
       </c>
       <c r="B168" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C168" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D168">
         <v>6.6949999999999996E-2</v>
@@ -2487,10 +2495,10 @@
         <v>41640</v>
       </c>
       <c r="B169" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C169" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D169">
         <v>6.6949999999999996E-2</v>
@@ -2501,10 +2509,10 @@
         <v>41609</v>
       </c>
       <c r="B170" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C170" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D170">
         <v>6.6949999999999996E-2</v>
@@ -2515,10 +2523,10 @@
         <v>41579</v>
       </c>
       <c r="B171" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C171" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D171">
         <v>6.6949999999999996E-2</v>
@@ -2529,10 +2537,10 @@
         <v>41548</v>
       </c>
       <c r="B172" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C172" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D172">
         <v>6.6949999999999996E-2</v>
@@ -2543,10 +2551,10 @@
         <v>41518</v>
       </c>
       <c r="B173" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C173" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D173">
         <v>6.6949999999999996E-2</v>
@@ -2557,10 +2565,10 @@
         <v>41487</v>
       </c>
       <c r="B174" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C174" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D174">
         <v>6.6949999999999996E-2</v>
@@ -2571,10 +2579,10 @@
         <v>41456</v>
       </c>
       <c r="B175" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C175" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D175">
         <v>6.6949999999999996E-2</v>
@@ -2585,10 +2593,10 @@
         <v>41426</v>
       </c>
       <c r="B176" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C176" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D176">
         <v>6.6949999999999996E-2</v>
@@ -2599,10 +2607,10 @@
         <v>41395</v>
       </c>
       <c r="B177" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C177" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D177">
         <v>6.6949999999999996E-2</v>
@@ -2613,10 +2621,10 @@
         <v>41365</v>
       </c>
       <c r="B178" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C178" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D178">
         <v>6.6949999999999996E-2</v>
@@ -2627,10 +2635,10 @@
         <v>41334</v>
       </c>
       <c r="B179" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C179" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D179">
         <v>6.6949999999999996E-2</v>
@@ -2641,10 +2649,10 @@
         <v>41306</v>
       </c>
       <c r="B180" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C180" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D180">
         <v>7.1388999999999994E-2</v>
@@ -2655,10 +2663,10 @@
         <v>41275</v>
       </c>
       <c r="B181" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C181" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D181">
         <v>7.1388999999999994E-2</v>
@@ -2669,10 +2677,10 @@
         <v>41244</v>
       </c>
       <c r="B182" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C182" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D182">
         <v>7.1388999999999994E-2</v>
@@ -2683,10 +2691,10 @@
         <v>41214</v>
       </c>
       <c r="B183" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C183" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D183">
         <v>7.1388999999999994E-2</v>
@@ -2697,10 +2705,10 @@
         <v>41183</v>
       </c>
       <c r="B184" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C184" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D184">
         <v>7.1388999999999994E-2</v>
@@ -2711,10 +2719,10 @@
         <v>41153</v>
       </c>
       <c r="B185" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C185" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D185">
         <v>7.1388999999999994E-2</v>
@@ -2725,10 +2733,10 @@
         <v>41122</v>
       </c>
       <c r="B186" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C186" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D186">
         <v>7.1388999999999994E-2</v>
@@ -2739,10 +2747,10 @@
         <v>41091</v>
       </c>
       <c r="B187" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C187" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D187">
         <v>7.1388999999999994E-2</v>
@@ -2753,10 +2761,10 @@
         <v>41061</v>
       </c>
       <c r="B188" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C188" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D188">
         <v>7.1388999999999994E-2</v>
@@ -2767,10 +2775,10 @@
         <v>41030</v>
       </c>
       <c r="B189" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C189" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D189">
         <v>7.1388999999999994E-2</v>
@@ -2781,10 +2789,10 @@
         <v>41000</v>
       </c>
       <c r="B190" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C190" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D190">
         <v>7.1388999999999994E-2</v>
@@ -2795,10 +2803,10 @@
         <v>40969</v>
       </c>
       <c r="B191" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C191" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D191">
         <v>7.1388999999999994E-2</v>
@@ -2809,10 +2817,10 @@
         <v>40940</v>
       </c>
       <c r="B192" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C192" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D192">
         <v>8.2516999999999993E-2</v>
@@ -2823,10 +2831,10 @@
         <v>40909</v>
       </c>
       <c r="B193" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C193" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D193">
         <v>8.2516999999999993E-2</v>
@@ -2837,10 +2845,10 @@
         <v>43800</v>
       </c>
       <c r="B194" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C194" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D194">
         <v>8.4610000000000005E-2</v>
@@ -2851,10 +2859,10 @@
         <v>43770</v>
       </c>
       <c r="B195" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C195" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D195">
         <v>8.4610000000000005E-2</v>
@@ -2865,10 +2873,10 @@
         <v>43739</v>
       </c>
       <c r="B196" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C196" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D196">
         <v>8.4610000000000005E-2</v>
@@ -2879,10 +2887,10 @@
         <v>43709</v>
       </c>
       <c r="B197" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C197" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D197">
         <v>8.4610000000000005E-2</v>
@@ -2893,10 +2901,10 @@
         <v>43678</v>
       </c>
       <c r="B198" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C198" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D198">
         <v>8.4610000000000005E-2</v>
@@ -2907,10 +2915,10 @@
         <v>43647</v>
       </c>
       <c r="B199" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C199" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D199">
         <v>8.4610000000000005E-2</v>
@@ -2921,10 +2929,10 @@
         <v>43617</v>
       </c>
       <c r="B200" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C200" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D200">
         <v>8.4610000000000005E-2</v>
@@ -2935,10 +2943,10 @@
         <v>43586</v>
       </c>
       <c r="B201" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C201" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D201">
         <v>8.4610000000000005E-2</v>
@@ -2949,10 +2957,10 @@
         <v>43556</v>
       </c>
       <c r="B202" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C202" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D202">
         <v>8.4610000000000005E-2</v>
@@ -2963,10 +2971,10 @@
         <v>43525</v>
       </c>
       <c r="B203" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C203" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D203">
         <v>8.4610000000000005E-2</v>
@@ -2977,10 +2985,10 @@
         <v>43497</v>
       </c>
       <c r="B204" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C204" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D204">
         <v>8.4610000000000005E-2</v>
@@ -2991,10 +2999,10 @@
         <v>43466</v>
       </c>
       <c r="B205" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C205" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D205">
         <v>8.4610000000000005E-2</v>
@@ -3005,10 +3013,10 @@
         <v>43435</v>
       </c>
       <c r="B206" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C206" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D206">
         <v>7.4230000000000004E-2</v>
@@ -3019,10 +3027,10 @@
         <v>43405</v>
       </c>
       <c r="B207" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C207" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D207">
         <v>7.4230000000000004E-2</v>
@@ -3033,10 +3041,10 @@
         <v>43374</v>
       </c>
       <c r="B208" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C208" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D208">
         <v>7.4230000000000004E-2</v>
@@ -3047,10 +3055,10 @@
         <v>43344</v>
       </c>
       <c r="B209" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C209" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D209">
         <v>7.4230000000000004E-2</v>
@@ -3061,10 +3069,10 @@
         <v>43313</v>
       </c>
       <c r="B210" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C210" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D210">
         <v>7.4230000000000004E-2</v>
@@ -3075,10 +3083,10 @@
         <v>43282</v>
       </c>
       <c r="B211" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C211" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D211">
         <v>7.4230000000000004E-2</v>
@@ -3089,10 +3097,10 @@
         <v>43252</v>
       </c>
       <c r="B212" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C212" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D212">
         <v>7.4230000000000004E-2</v>
@@ -3103,10 +3111,10 @@
         <v>43221</v>
       </c>
       <c r="B213" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C213" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D213">
         <v>7.4230000000000004E-2</v>
@@ -3117,10 +3125,10 @@
         <v>43191</v>
       </c>
       <c r="B214" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C214" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D214">
         <v>7.4230000000000004E-2</v>
@@ -3131,10 +3139,10 @@
         <v>43160</v>
       </c>
       <c r="B215" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C215" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D215">
         <v>7.4230000000000004E-2</v>
@@ -3145,10 +3153,10 @@
         <v>43132</v>
       </c>
       <c r="B216" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C216" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D216">
         <v>7.4230000000000004E-2</v>
@@ -3159,10 +3167,10 @@
         <v>43101</v>
       </c>
       <c r="B217" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C217" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D217">
         <v>7.4230000000000004E-2</v>
@@ -3173,10 +3181,10 @@
         <v>43070</v>
       </c>
       <c r="B218" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C218" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D218">
         <v>7.0489999999999997E-2</v>
@@ -3187,10 +3195,10 @@
         <v>43040</v>
       </c>
       <c r="B219" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C219" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D219">
         <v>7.0489999999999997E-2</v>
@@ -3201,10 +3209,10 @@
         <v>43009</v>
       </c>
       <c r="B220" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C220" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D220">
         <v>7.0489999999999997E-2</v>
@@ -3215,10 +3223,10 @@
         <v>42979</v>
       </c>
       <c r="B221" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C221" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D221">
         <v>7.0489999999999997E-2</v>
@@ -3229,10 +3237,10 @@
         <v>42948</v>
       </c>
       <c r="B222" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C222" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D222">
         <v>7.0489999999999997E-2</v>
@@ -3243,10 +3251,10 @@
         <v>42917</v>
       </c>
       <c r="B223" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C223" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D223">
         <v>7.0489999999999997E-2</v>
@@ -3257,10 +3265,10 @@
         <v>42887</v>
       </c>
       <c r="B224" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C224" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D224">
         <v>7.0489999999999997E-2</v>
@@ -3271,10 +3279,10 @@
         <v>42856</v>
       </c>
       <c r="B225" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C225" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D225">
         <v>7.0919999999999997E-2</v>
@@ -3285,10 +3293,10 @@
         <v>42826</v>
       </c>
       <c r="B226" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C226" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D226">
         <v>7.0919999999999997E-2</v>
@@ -3299,10 +3307,10 @@
         <v>42795</v>
       </c>
       <c r="B227" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C227" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D227">
         <v>7.0919999999999997E-2</v>
@@ -3313,10 +3321,10 @@
         <v>42767</v>
       </c>
       <c r="B228" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C228" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D228">
         <v>7.0919999999999997E-2</v>
@@ -3327,10 +3335,10 @@
         <v>42736</v>
       </c>
       <c r="B229" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C229" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D229">
         <v>7.0919999999999997E-2</v>
@@ -3341,10 +3349,10 @@
         <v>42705</v>
       </c>
       <c r="B230" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C230" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D230">
         <v>7.0919999999999997E-2</v>
@@ -3355,10 +3363,10 @@
         <v>42675</v>
       </c>
       <c r="B231" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C231" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D231">
         <v>7.0919999999999997E-2</v>
@@ -3369,10 +3377,10 @@
         <v>42644</v>
       </c>
       <c r="B232" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C232" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D232">
         <v>8.4930000000000005E-2</v>
@@ -3383,10 +3391,10 @@
         <v>42614</v>
       </c>
       <c r="B233" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C233" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D233">
         <v>8.4930000000000005E-2</v>
@@ -3397,10 +3405,10 @@
         <v>42583</v>
       </c>
       <c r="B234" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C234" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D234">
         <v>8.4930000000000005E-2</v>
@@ -3411,10 +3419,10 @@
         <v>42552</v>
       </c>
       <c r="B235" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C235" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D235">
         <v>8.4930000000000005E-2</v>
@@ -3425,10 +3433,10 @@
         <v>42522</v>
       </c>
       <c r="B236" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C236" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D236">
         <v>8.4930000000000005E-2</v>
@@ -3439,10 +3447,10 @@
         <v>42491</v>
       </c>
       <c r="B237" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C237" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D237">
         <v>8.4930000000000005E-2</v>
@@ -3453,10 +3461,10 @@
         <v>42461</v>
       </c>
       <c r="B238" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C238" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D238">
         <v>8.4930000000000005E-2</v>
@@ -3467,10 +3475,10 @@
         <v>42430</v>
       </c>
       <c r="B239" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C239" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D239">
         <v>8.4930000000000005E-2</v>
@@ -3481,10 +3489,10 @@
         <v>42401</v>
       </c>
       <c r="B240" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C240" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D240">
         <v>8.4930000000000005E-2</v>
@@ -3495,10 +3503,10 @@
         <v>42370</v>
       </c>
       <c r="B241" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C241" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D241">
         <v>8.4930000000000005E-2</v>
@@ -3509,10 +3517,10 @@
         <v>42339</v>
       </c>
       <c r="B242" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C242" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D242">
         <v>8.4930000000000005E-2</v>
@@ -3523,10 +3531,10 @@
         <v>42309</v>
       </c>
       <c r="B243" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C243" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D243">
         <v>8.4930000000000005E-2</v>
@@ -3537,10 +3545,10 @@
         <v>42278</v>
       </c>
       <c r="B244" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C244" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D244">
         <v>8.4930000000000005E-2</v>
@@ -3551,10 +3559,10 @@
         <v>42248</v>
       </c>
       <c r="B245" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C245" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D245">
         <v>8.4930000000000005E-2</v>
@@ -3565,10 +3573,10 @@
         <v>42217</v>
       </c>
       <c r="B246" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C246" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D246">
         <v>8.4930000000000005E-2</v>
@@ -3579,10 +3587,10 @@
         <v>42186</v>
       </c>
       <c r="B247" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C247" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D247">
         <v>8.4930000000000005E-2</v>
@@ -3593,10 +3601,10 @@
         <v>42156</v>
       </c>
       <c r="B248" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C248" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D248">
         <v>8.4930000000000005E-2</v>
@@ -3607,10 +3615,10 @@
         <v>42125</v>
       </c>
       <c r="B249" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C249" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D249">
         <v>8.4930000000000005E-2</v>
@@ -3621,10 +3629,10 @@
         <v>42095</v>
       </c>
       <c r="B250" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C250" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D250">
         <v>8.4930000000000005E-2</v>
@@ -3635,10 +3643,10 @@
         <v>42064</v>
       </c>
       <c r="B251" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C251" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D251">
         <v>8.4930000000000005E-2</v>
@@ -3649,10 +3657,10 @@
         <v>42036</v>
       </c>
       <c r="B252" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C252" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D252">
         <v>8.4930000000000005E-2</v>
@@ -3663,10 +3671,10 @@
         <v>42005</v>
       </c>
       <c r="B253" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C253" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D253">
         <v>8.4930000000000005E-2</v>
@@ -3677,10 +3685,10 @@
         <v>41974</v>
       </c>
       <c r="B254" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C254" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D254">
         <v>8.4930000000000005E-2</v>
@@ -3691,10 +3699,10 @@
         <v>41944</v>
       </c>
       <c r="B255" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C255" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D255">
         <v>8.4930000000000005E-2</v>
@@ -3705,10 +3713,10 @@
         <v>41913</v>
       </c>
       <c r="B256" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C256" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D256">
         <v>8.4930000000000005E-2</v>
@@ -3719,10 +3727,10 @@
         <v>41883</v>
       </c>
       <c r="B257" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C257" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D257">
         <v>8.4930000000000005E-2</v>
@@ -3733,10 +3741,10 @@
         <v>41852</v>
       </c>
       <c r="B258" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C258" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D258">
         <v>8.4930000000000005E-2</v>
@@ -3747,10 +3755,10 @@
         <v>41821</v>
       </c>
       <c r="B259" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C259" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D259">
         <v>8.4930000000000005E-2</v>
@@ -3761,10 +3769,10 @@
         <v>41791</v>
       </c>
       <c r="B260" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C260" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D260">
         <v>8.4930000000000005E-2</v>
@@ -3775,10 +3783,10 @@
         <v>41760</v>
       </c>
       <c r="B261" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C261" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D261">
         <v>8.4930000000000005E-2</v>
@@ -3789,10 +3797,10 @@
         <v>41730</v>
       </c>
       <c r="B262" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C262" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D262">
         <v>8.4930000000000005E-2</v>
@@ -3803,10 +3811,10 @@
         <v>41699</v>
       </c>
       <c r="B263" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C263" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D263">
         <v>8.4930000000000005E-2</v>
@@ -3817,10 +3825,10 @@
         <v>41671</v>
       </c>
       <c r="B264" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C264" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D264">
         <v>7.2999999999999995E-2</v>
@@ -3831,10 +3839,10 @@
         <v>41640</v>
       </c>
       <c r="B265" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C265" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D265">
         <v>7.2999999999999995E-2</v>
@@ -3845,10 +3853,10 @@
         <v>41609</v>
       </c>
       <c r="B266" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C266" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D266">
         <v>7.2999999999999995E-2</v>
@@ -3859,10 +3867,10 @@
         <v>41579</v>
       </c>
       <c r="B267" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C267" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D267">
         <v>7.2999999999999995E-2</v>
@@ -3873,10 +3881,10 @@
         <v>41548</v>
       </c>
       <c r="B268" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C268" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D268">
         <v>7.2999999999999995E-2</v>
@@ -3887,10 +3895,10 @@
         <v>41518</v>
       </c>
       <c r="B269" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C269" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D269">
         <v>7.2999999999999995E-2</v>
@@ -3901,10 +3909,10 @@
         <v>41487</v>
       </c>
       <c r="B270" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C270" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D270">
         <v>7.2999999999999995E-2</v>
@@ -3915,10 +3923,10 @@
         <v>41456</v>
       </c>
       <c r="B271" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C271" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D271">
         <v>7.2999999999999995E-2</v>
@@ -3929,10 +3937,10 @@
         <v>41426</v>
       </c>
       <c r="B272" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C272" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D272">
         <v>7.2999999999999995E-2</v>
@@ -3943,10 +3951,10 @@
         <v>41395</v>
       </c>
       <c r="B273" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C273" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D273">
         <v>7.2999999999999995E-2</v>
@@ -3957,10 +3965,10 @@
         <v>41365</v>
       </c>
       <c r="B274" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C274" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D274">
         <v>7.2999999999999995E-2</v>
@@ -3971,10 +3979,10 @@
         <v>41334</v>
       </c>
       <c r="B275" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C275" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D275">
         <v>7.2999999999999995E-2</v>
@@ -3985,10 +3993,10 @@
         <v>41306</v>
       </c>
       <c r="B276" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C276" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D276">
         <v>7.2999999999999995E-2</v>
@@ -3999,10 +4007,10 @@
         <v>41275</v>
       </c>
       <c r="B277" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C277" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D277">
         <v>7.2999999999999995E-2</v>
@@ -4013,10 +4021,10 @@
         <v>41244</v>
       </c>
       <c r="B278" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C278" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D278">
         <v>7.2999999999999995E-2</v>
@@ -4027,10 +4035,10 @@
         <v>41214</v>
       </c>
       <c r="B279" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C279" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D279">
         <v>7.2999999999999995E-2</v>
@@ -4041,10 +4049,10 @@
         <v>41183</v>
       </c>
       <c r="B280" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C280" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D280">
         <v>7.2999999999999995E-2</v>
@@ -4055,10 +4063,10 @@
         <v>41153</v>
       </c>
       <c r="B281" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C281" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D281">
         <v>7.2999999999999995E-2</v>
@@ -4069,10 +4077,10 @@
         <v>41122</v>
       </c>
       <c r="B282" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C282" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D282">
         <v>7.2999999999999995E-2</v>
@@ -4083,10 +4091,10 @@
         <v>41091</v>
       </c>
       <c r="B283" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C283" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D283">
         <v>7.2999999999999995E-2</v>
@@ -4097,10 +4105,10 @@
         <v>41061</v>
       </c>
       <c r="B284" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C284" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D284">
         <v>7.2999999999999995E-2</v>
@@ -4111,10 +4119,10 @@
         <v>41030</v>
       </c>
       <c r="B285" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C285" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D285">
         <v>7.2999999999999995E-2</v>
@@ -4125,10 +4133,10 @@
         <v>41000</v>
       </c>
       <c r="B286" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C286" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D286">
         <v>7.2999999999999995E-2</v>
@@ -4139,10 +4147,10 @@
         <v>40969</v>
       </c>
       <c r="B287" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C287" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D287">
         <v>7.2999999999999995E-2</v>
@@ -4153,10 +4161,10 @@
         <v>40940</v>
       </c>
       <c r="B288" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C288" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D288">
         <v>7.2999999999999995E-2</v>
@@ -4167,13 +4175,949 @@
         <v>40909</v>
       </c>
       <c r="B289" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C289" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D289">
         <v>7.2999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A290" s="1">
+        <v>43831</v>
+      </c>
+      <c r="B290" t="s">
+        <v>3</v>
+      </c>
+      <c r="D290" s="2">
+        <v>7.3037000000000005E-2</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A291" s="1">
+        <v>43862</v>
+      </c>
+      <c r="B291" t="s">
+        <v>3</v>
+      </c>
+      <c r="D291" s="2">
+        <v>7.3037000000000005E-2</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A292" s="1">
+        <v>43891</v>
+      </c>
+      <c r="B292" t="s">
+        <v>3</v>
+      </c>
+      <c r="D292" s="2">
+        <v>7.3037000000000005E-2</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A293" s="1">
+        <v>43922</v>
+      </c>
+      <c r="B293" t="s">
+        <v>3</v>
+      </c>
+      <c r="D293" s="2">
+        <v>7.3037000000000005E-2</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A294" s="1">
+        <v>43952</v>
+      </c>
+      <c r="B294" t="s">
+        <v>3</v>
+      </c>
+      <c r="D294" s="2">
+        <v>7.3037000000000005E-2</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A295" s="1">
+        <v>43983</v>
+      </c>
+      <c r="B295" t="s">
+        <v>3</v>
+      </c>
+      <c r="D295" s="2">
+        <v>7.3037000000000005E-2</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A296" s="1">
+        <v>44013</v>
+      </c>
+      <c r="B296" t="s">
+        <v>3</v>
+      </c>
+      <c r="D296" s="2">
+        <v>7.3037000000000005E-2</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A297" s="1">
+        <v>44044</v>
+      </c>
+      <c r="B297" t="s">
+        <v>3</v>
+      </c>
+      <c r="D297" s="2">
+        <v>7.3037000000000005E-2</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A298" s="1">
+        <v>44075</v>
+      </c>
+      <c r="B298" t="s">
+        <v>3</v>
+      </c>
+      <c r="D298" s="2">
+        <v>7.3037000000000005E-2</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A299" s="1">
+        <v>44105</v>
+      </c>
+      <c r="B299" t="s">
+        <v>3</v>
+      </c>
+      <c r="D299" s="2">
+        <v>7.3037000000000005E-2</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A300" s="1">
+        <v>44136</v>
+      </c>
+      <c r="B300" t="s">
+        <v>3</v>
+      </c>
+      <c r="D300" s="2">
+        <v>7.3037000000000005E-2</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A301" s="1">
+        <v>44166</v>
+      </c>
+      <c r="B301" t="s">
+        <v>3</v>
+      </c>
+      <c r="D301" s="2">
+        <v>7.3037000000000005E-2</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A302" s="1">
+        <v>44197</v>
+      </c>
+      <c r="B302" t="s">
+        <v>3</v>
+      </c>
+      <c r="D302" s="2">
+        <v>6.4493999999999996E-2</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A303" s="1">
+        <v>44228</v>
+      </c>
+      <c r="B303" t="s">
+        <v>3</v>
+      </c>
+      <c r="D303" s="2">
+        <v>6.4493999999999996E-2</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A304" s="1">
+        <v>44256</v>
+      </c>
+      <c r="B304" t="s">
+        <v>3</v>
+      </c>
+      <c r="D304" s="2">
+        <v>6.4493999999999996E-2</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A305" s="1">
+        <v>44287</v>
+      </c>
+      <c r="B305" t="s">
+        <v>3</v>
+      </c>
+      <c r="D305" s="2">
+        <v>6.4493999999999996E-2</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A306" s="1">
+        <v>44317</v>
+      </c>
+      <c r="B306" t="s">
+        <v>3</v>
+      </c>
+      <c r="D306" s="2">
+        <v>6.4493999999999996E-2</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A307" s="1">
+        <v>44348</v>
+      </c>
+      <c r="B307" t="s">
+        <v>3</v>
+      </c>
+      <c r="D307" s="2">
+        <v>6.4493999999999996E-2</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A308" s="1">
+        <v>44378</v>
+      </c>
+      <c r="B308" t="s">
+        <v>3</v>
+      </c>
+      <c r="D308" s="2">
+        <v>6.4493999999999996E-2</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A309" s="1">
+        <v>44409</v>
+      </c>
+      <c r="B309" t="s">
+        <v>3</v>
+      </c>
+      <c r="D309" s="2">
+        <v>6.4493999999999996E-2</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A310" s="1">
+        <v>44440</v>
+      </c>
+      <c r="B310" t="s">
+        <v>3</v>
+      </c>
+      <c r="D310" s="2">
+        <v>6.4493999999999996E-2</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A311" s="1">
+        <v>44470</v>
+      </c>
+      <c r="B311" t="s">
+        <v>3</v>
+      </c>
+      <c r="D311" s="2">
+        <v>6.4493999999999996E-2</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A312" s="1">
+        <v>44501</v>
+      </c>
+      <c r="B312" t="s">
+        <v>3</v>
+      </c>
+      <c r="D312" s="2">
+        <v>6.4493999999999996E-2</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A313" s="1">
+        <v>44531</v>
+      </c>
+      <c r="B313" t="s">
+        <v>3</v>
+      </c>
+      <c r="D313" s="2">
+        <v>6.4493999999999996E-2</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A314" s="1">
+        <v>43831</v>
+      </c>
+      <c r="B314" t="s">
+        <v>7</v>
+      </c>
+      <c r="C314" t="s">
+        <v>4</v>
+      </c>
+      <c r="D314" s="2">
+        <v>6.8784999999999999E-2</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A315" s="1">
+        <v>43862</v>
+      </c>
+      <c r="B315" t="s">
+        <v>7</v>
+      </c>
+      <c r="C315" t="s">
+        <v>4</v>
+      </c>
+      <c r="D315" s="2">
+        <v>6.8784999999999999E-2</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A316" s="1">
+        <v>43891</v>
+      </c>
+      <c r="B316" t="s">
+        <v>7</v>
+      </c>
+      <c r="C316" t="s">
+        <v>4</v>
+      </c>
+      <c r="D316" s="2">
+        <v>6.8784999999999999E-2</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A317" s="1">
+        <v>43922</v>
+      </c>
+      <c r="B317" t="s">
+        <v>7</v>
+      </c>
+      <c r="C317" t="s">
+        <v>4</v>
+      </c>
+      <c r="D317" s="2">
+        <v>6.8784999999999999E-2</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A318" s="1">
+        <v>43952</v>
+      </c>
+      <c r="B318" t="s">
+        <v>7</v>
+      </c>
+      <c r="C318" t="s">
+        <v>4</v>
+      </c>
+      <c r="D318" s="2">
+        <v>6.8784999999999999E-2</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A319" s="1">
+        <v>43983</v>
+      </c>
+      <c r="B319" t="s">
+        <v>7</v>
+      </c>
+      <c r="C319" t="s">
+        <v>4</v>
+      </c>
+      <c r="D319" s="2">
+        <v>6.8784999999999999E-2</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A320" s="1">
+        <v>44013</v>
+      </c>
+      <c r="B320" t="s">
+        <v>7</v>
+      </c>
+      <c r="C320" t="s">
+        <v>4</v>
+      </c>
+      <c r="D320" s="2">
+        <v>6.8784999999999999E-2</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A321" s="1">
+        <v>44044</v>
+      </c>
+      <c r="B321" t="s">
+        <v>7</v>
+      </c>
+      <c r="C321" t="s">
+        <v>4</v>
+      </c>
+      <c r="D321" s="2">
+        <v>6.8784999999999999E-2</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A322" s="1">
+        <v>44075</v>
+      </c>
+      <c r="B322" t="s">
+        <v>7</v>
+      </c>
+      <c r="C322" t="s">
+        <v>4</v>
+      </c>
+      <c r="D322" s="2">
+        <v>6.8784999999999999E-2</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A323" s="1">
+        <v>44105</v>
+      </c>
+      <c r="B323" t="s">
+        <v>7</v>
+      </c>
+      <c r="C323" t="s">
+        <v>4</v>
+      </c>
+      <c r="D323" s="2">
+        <v>6.8784999999999999E-2</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A324" s="1">
+        <v>44136</v>
+      </c>
+      <c r="B324" t="s">
+        <v>7</v>
+      </c>
+      <c r="C324" t="s">
+        <v>4</v>
+      </c>
+      <c r="D324" s="2">
+        <v>6.8784999999999999E-2</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A325" s="1">
+        <v>44166</v>
+      </c>
+      <c r="B325" t="s">
+        <v>7</v>
+      </c>
+      <c r="C325" t="s">
+        <v>4</v>
+      </c>
+      <c r="D325" s="2">
+        <v>6.8784999999999999E-2</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A326" s="1">
+        <v>44197</v>
+      </c>
+      <c r="B326" t="s">
+        <v>7</v>
+      </c>
+      <c r="C326" t="s">
+        <v>4</v>
+      </c>
+      <c r="D326" s="2">
+        <v>6.1960000000000001E-2</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A327" s="1">
+        <v>44228</v>
+      </c>
+      <c r="B327" t="s">
+        <v>7</v>
+      </c>
+      <c r="C327" t="s">
+        <v>4</v>
+      </c>
+      <c r="D327" s="2">
+        <v>6.1960000000000001E-2</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A328" s="1">
+        <v>44256</v>
+      </c>
+      <c r="B328" t="s">
+        <v>7</v>
+      </c>
+      <c r="C328" t="s">
+        <v>4</v>
+      </c>
+      <c r="D328" s="2">
+        <v>6.1960000000000001E-2</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A329" s="1">
+        <v>44287</v>
+      </c>
+      <c r="B329" t="s">
+        <v>7</v>
+      </c>
+      <c r="C329" t="s">
+        <v>4</v>
+      </c>
+      <c r="D329" s="2">
+        <v>6.1960000000000001E-2</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A330" s="1">
+        <v>44317</v>
+      </c>
+      <c r="B330" t="s">
+        <v>7</v>
+      </c>
+      <c r="C330" t="s">
+        <v>4</v>
+      </c>
+      <c r="D330" s="2">
+        <v>6.1960000000000001E-2</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A331" s="1">
+        <v>44348</v>
+      </c>
+      <c r="B331" t="s">
+        <v>7</v>
+      </c>
+      <c r="C331" t="s">
+        <v>4</v>
+      </c>
+      <c r="D331" s="2">
+        <v>6.1960000000000001E-2</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A332" s="1">
+        <v>44378</v>
+      </c>
+      <c r="B332" t="s">
+        <v>7</v>
+      </c>
+      <c r="C332" t="s">
+        <v>4</v>
+      </c>
+      <c r="D332" s="2">
+        <v>6.1960000000000001E-2</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A333" s="1">
+        <v>44409</v>
+      </c>
+      <c r="B333" t="s">
+        <v>7</v>
+      </c>
+      <c r="C333" t="s">
+        <v>4</v>
+      </c>
+      <c r="D333" s="2">
+        <v>6.1960000000000001E-2</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A334" s="1">
+        <v>44440</v>
+      </c>
+      <c r="B334" t="s">
+        <v>7</v>
+      </c>
+      <c r="C334" t="s">
+        <v>4</v>
+      </c>
+      <c r="D334" s="2">
+        <v>6.1960000000000001E-2</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A335" s="1">
+        <v>44470</v>
+      </c>
+      <c r="B335" t="s">
+        <v>7</v>
+      </c>
+      <c r="C335" t="s">
+        <v>4</v>
+      </c>
+      <c r="D335" s="2">
+        <v>6.1960000000000001E-2</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A336" s="1">
+        <v>44501</v>
+      </c>
+      <c r="B336" t="s">
+        <v>7</v>
+      </c>
+      <c r="C336" t="s">
+        <v>4</v>
+      </c>
+      <c r="D336" s="2">
+        <v>6.1960000000000001E-2</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A337" s="1">
+        <v>44531</v>
+      </c>
+      <c r="B337" t="s">
+        <v>7</v>
+      </c>
+      <c r="C337" t="s">
+        <v>4</v>
+      </c>
+      <c r="D337" s="2">
+        <v>6.1960000000000001E-2</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A338" s="1">
+        <v>43831</v>
+      </c>
+      <c r="B338" t="s">
+        <v>7</v>
+      </c>
+      <c r="C338" t="s">
+        <v>5</v>
+      </c>
+      <c r="D338" s="2">
+        <v>6.7294000000000007E-2</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A339" s="1">
+        <v>43862</v>
+      </c>
+      <c r="B339" t="s">
+        <v>7</v>
+      </c>
+      <c r="C339" t="s">
+        <v>5</v>
+      </c>
+      <c r="D339" s="2">
+        <v>6.7294000000000007E-2</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A340" s="1">
+        <v>43891</v>
+      </c>
+      <c r="B340" t="s">
+        <v>7</v>
+      </c>
+      <c r="C340" t="s">
+        <v>5</v>
+      </c>
+      <c r="D340" s="2">
+        <v>6.7294000000000007E-2</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A341" s="1">
+        <v>43922</v>
+      </c>
+      <c r="B341" t="s">
+        <v>7</v>
+      </c>
+      <c r="C341" t="s">
+        <v>5</v>
+      </c>
+      <c r="D341" s="2">
+        <v>6.7294000000000007E-2</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A342" s="1">
+        <v>43952</v>
+      </c>
+      <c r="B342" t="s">
+        <v>7</v>
+      </c>
+      <c r="C342" t="s">
+        <v>5</v>
+      </c>
+      <c r="D342" s="2">
+        <v>6.7294000000000007E-2</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A343" s="1">
+        <v>43983</v>
+      </c>
+      <c r="B343" t="s">
+        <v>7</v>
+      </c>
+      <c r="C343" t="s">
+        <v>5</v>
+      </c>
+      <c r="D343" s="2">
+        <v>6.7294000000000007E-2</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A344" s="1">
+        <v>44013</v>
+      </c>
+      <c r="B344" t="s">
+        <v>7</v>
+      </c>
+      <c r="C344" t="s">
+        <v>5</v>
+      </c>
+      <c r="D344" s="2">
+        <v>6.7294000000000007E-2</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A345" s="1">
+        <v>44044</v>
+      </c>
+      <c r="B345" t="s">
+        <v>7</v>
+      </c>
+      <c r="C345" t="s">
+        <v>5</v>
+      </c>
+      <c r="D345" s="2">
+        <v>6.7294000000000007E-2</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A346" s="1">
+        <v>44075</v>
+      </c>
+      <c r="B346" t="s">
+        <v>7</v>
+      </c>
+      <c r="C346" t="s">
+        <v>5</v>
+      </c>
+      <c r="D346" s="2">
+        <v>6.7294000000000007E-2</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A347" s="1">
+        <v>44105</v>
+      </c>
+      <c r="B347" t="s">
+        <v>7</v>
+      </c>
+      <c r="C347" t="s">
+        <v>5</v>
+      </c>
+      <c r="D347" s="2">
+        <v>6.7294000000000007E-2</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A348" s="1">
+        <v>44136</v>
+      </c>
+      <c r="B348" t="s">
+        <v>7</v>
+      </c>
+      <c r="C348" t="s">
+        <v>5</v>
+      </c>
+      <c r="D348" s="2">
+        <v>6.7294000000000007E-2</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A349" s="1">
+        <v>44166</v>
+      </c>
+      <c r="B349" t="s">
+        <v>7</v>
+      </c>
+      <c r="C349" t="s">
+        <v>5</v>
+      </c>
+      <c r="D349" s="2">
+        <v>6.7294000000000007E-2</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A350" s="1">
+        <v>44197</v>
+      </c>
+      <c r="B350" t="s">
+        <v>7</v>
+      </c>
+      <c r="C350" t="s">
+        <v>5</v>
+      </c>
+      <c r="D350" s="2">
+        <v>6.0267000000000001E-2</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A351" s="1">
+        <v>44228</v>
+      </c>
+      <c r="B351" t="s">
+        <v>7</v>
+      </c>
+      <c r="C351" t="s">
+        <v>5</v>
+      </c>
+      <c r="D351" s="2">
+        <v>6.0267000000000001E-2</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A352" s="1">
+        <v>44256</v>
+      </c>
+      <c r="B352" t="s">
+        <v>7</v>
+      </c>
+      <c r="C352" t="s">
+        <v>5</v>
+      </c>
+      <c r="D352" s="2">
+        <v>6.0267000000000001E-2</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A353" s="1">
+        <v>44287</v>
+      </c>
+      <c r="B353" t="s">
+        <v>7</v>
+      </c>
+      <c r="C353" t="s">
+        <v>5</v>
+      </c>
+      <c r="D353" s="2">
+        <v>6.0267000000000001E-2</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A354" s="1">
+        <v>44317</v>
+      </c>
+      <c r="B354" t="s">
+        <v>7</v>
+      </c>
+      <c r="C354" t="s">
+        <v>5</v>
+      </c>
+      <c r="D354" s="2">
+        <v>6.0267000000000001E-2</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A355" s="1">
+        <v>44348</v>
+      </c>
+      <c r="B355" t="s">
+        <v>7</v>
+      </c>
+      <c r="C355" t="s">
+        <v>5</v>
+      </c>
+      <c r="D355" s="2">
+        <v>6.0267000000000001E-2</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A356" s="1">
+        <v>44378</v>
+      </c>
+      <c r="B356" t="s">
+        <v>7</v>
+      </c>
+      <c r="C356" t="s">
+        <v>5</v>
+      </c>
+      <c r="D356" s="2">
+        <v>6.0267000000000001E-2</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A357" s="1">
+        <v>44409</v>
+      </c>
+      <c r="B357" t="s">
+        <v>7</v>
+      </c>
+      <c r="C357" t="s">
+        <v>5</v>
+      </c>
+      <c r="D357" s="2">
+        <v>6.0267000000000001E-2</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A358" s="1">
+        <v>44440</v>
+      </c>
+      <c r="B358" t="s">
+        <v>7</v>
+      </c>
+      <c r="C358" t="s">
+        <v>5</v>
+      </c>
+      <c r="D358" s="2">
+        <v>6.0267000000000001E-2</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A359" s="1">
+        <v>44470</v>
+      </c>
+      <c r="B359" t="s">
+        <v>7</v>
+      </c>
+      <c r="C359" t="s">
+        <v>5</v>
+      </c>
+      <c r="D359" s="2">
+        <v>6.0267000000000001E-2</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A360" s="1">
+        <v>44501</v>
+      </c>
+      <c r="B360" t="s">
+        <v>7</v>
+      </c>
+      <c r="C360" t="s">
+        <v>5</v>
+      </c>
+      <c r="D360" s="2">
+        <v>6.0267000000000001E-2</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A361" s="1">
+        <v>44531</v>
+      </c>
+      <c r="B361" t="s">
+        <v>7</v>
+      </c>
+      <c r="C361" t="s">
+        <v>5</v>
+      </c>
+      <c r="D361" s="2">
+        <v>6.0267000000000001E-2</v>
       </c>
     </row>
   </sheetData>

--- a/retail-power-compare/raw/monthly_standard_offer_by_utility.xlsx
+++ b/retail-power-compare/raw/monthly_standard_offer_by_utility.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Darren/Github clones/data-projects/retail-power-compare/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C151948-DE52-B542-B749-7EEC0518D562}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2BE529E-1627-8947-846E-7C62BA337ACE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="20100" windowHeight="27020" xr2:uid="{CAE620D4-FD76-9349-A05C-D8713AA01DE9}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="8">
   <si>
     <t>Utility</t>
   </si>
@@ -414,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18C04127-8BFC-3147-AA20-C61BC9431E16}">
-  <dimension ref="A1:D361"/>
+  <dimension ref="A1:D397"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D357" sqref="D357"/>
+    <sheetView tabSelected="1" topLeftCell="A374" workbookViewId="0">
+      <selection activeCell="C400" sqref="C400"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5120,6 +5120,474 @@
         <v>6.0267000000000001E-2</v>
       </c>
     </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A362" s="1">
+        <v>44562</v>
+      </c>
+      <c r="B362" t="s">
+        <v>7</v>
+      </c>
+      <c r="C362" t="s">
+        <v>5</v>
+      </c>
+      <c r="D362" s="2">
+        <v>0.110873</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A363" s="1">
+        <v>44593</v>
+      </c>
+      <c r="B363" t="s">
+        <v>7</v>
+      </c>
+      <c r="C363" t="s">
+        <v>5</v>
+      </c>
+      <c r="D363" s="2">
+        <v>0.110873</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A364" s="1">
+        <v>44621</v>
+      </c>
+      <c r="B364" t="s">
+        <v>7</v>
+      </c>
+      <c r="C364" t="s">
+        <v>5</v>
+      </c>
+      <c r="D364" s="2">
+        <v>0.110873</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A365" s="1">
+        <v>44652</v>
+      </c>
+      <c r="B365" t="s">
+        <v>7</v>
+      </c>
+      <c r="C365" t="s">
+        <v>5</v>
+      </c>
+      <c r="D365" s="2">
+        <v>0.110873</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A366" s="1">
+        <v>44682</v>
+      </c>
+      <c r="B366" t="s">
+        <v>7</v>
+      </c>
+      <c r="C366" t="s">
+        <v>5</v>
+      </c>
+      <c r="D366" s="2">
+        <v>0.110873</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A367" s="1">
+        <v>44713</v>
+      </c>
+      <c r="B367" t="s">
+        <v>7</v>
+      </c>
+      <c r="C367" t="s">
+        <v>5</v>
+      </c>
+      <c r="D367" s="2">
+        <v>0.110873</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A368" s="1">
+        <v>44743</v>
+      </c>
+      <c r="B368" t="s">
+        <v>7</v>
+      </c>
+      <c r="C368" t="s">
+        <v>5</v>
+      </c>
+      <c r="D368" s="2">
+        <v>0.110873</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A369" s="1">
+        <v>44774</v>
+      </c>
+      <c r="B369" t="s">
+        <v>7</v>
+      </c>
+      <c r="C369" t="s">
+        <v>5</v>
+      </c>
+      <c r="D369" s="2">
+        <v>0.110873</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A370" s="1">
+        <v>44805</v>
+      </c>
+      <c r="B370" t="s">
+        <v>7</v>
+      </c>
+      <c r="C370" t="s">
+        <v>5</v>
+      </c>
+      <c r="D370" s="2">
+        <v>0.110873</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A371" s="1">
+        <v>44835</v>
+      </c>
+      <c r="B371" t="s">
+        <v>7</v>
+      </c>
+      <c r="C371" t="s">
+        <v>5</v>
+      </c>
+      <c r="D371" s="2">
+        <v>0.110873</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A372" s="1">
+        <v>44866</v>
+      </c>
+      <c r="B372" t="s">
+        <v>7</v>
+      </c>
+      <c r="C372" t="s">
+        <v>5</v>
+      </c>
+      <c r="D372" s="2">
+        <v>0.110873</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A373" s="1">
+        <v>44896</v>
+      </c>
+      <c r="B373" t="s">
+        <v>7</v>
+      </c>
+      <c r="C373" t="s">
+        <v>5</v>
+      </c>
+      <c r="D373" s="2">
+        <v>0.110873</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A374" s="1">
+        <v>44562</v>
+      </c>
+      <c r="B374" t="s">
+        <v>7</v>
+      </c>
+      <c r="C374" t="s">
+        <v>4</v>
+      </c>
+      <c r="D374" s="2">
+        <v>0.11684</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A375" s="1">
+        <v>44593</v>
+      </c>
+      <c r="B375" t="s">
+        <v>7</v>
+      </c>
+      <c r="C375" t="s">
+        <v>4</v>
+      </c>
+      <c r="D375" s="2">
+        <v>0.11684</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A376" s="1">
+        <v>44621</v>
+      </c>
+      <c r="B376" t="s">
+        <v>7</v>
+      </c>
+      <c r="C376" t="s">
+        <v>4</v>
+      </c>
+      <c r="D376" s="2">
+        <v>0.11684</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A377" s="1">
+        <v>44652</v>
+      </c>
+      <c r="B377" t="s">
+        <v>7</v>
+      </c>
+      <c r="C377" t="s">
+        <v>4</v>
+      </c>
+      <c r="D377" s="2">
+        <v>0.11684</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A378" s="1">
+        <v>44682</v>
+      </c>
+      <c r="B378" t="s">
+        <v>7</v>
+      </c>
+      <c r="C378" t="s">
+        <v>4</v>
+      </c>
+      <c r="D378" s="2">
+        <v>0.11684</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A379" s="1">
+        <v>44713</v>
+      </c>
+      <c r="B379" t="s">
+        <v>7</v>
+      </c>
+      <c r="C379" t="s">
+        <v>4</v>
+      </c>
+      <c r="D379" s="2">
+        <v>0.11684</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A380" s="1">
+        <v>44743</v>
+      </c>
+      <c r="B380" t="s">
+        <v>7</v>
+      </c>
+      <c r="C380" t="s">
+        <v>4</v>
+      </c>
+      <c r="D380" s="2">
+        <v>0.11684</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A381" s="1">
+        <v>44774</v>
+      </c>
+      <c r="B381" t="s">
+        <v>7</v>
+      </c>
+      <c r="C381" t="s">
+        <v>4</v>
+      </c>
+      <c r="D381" s="2">
+        <v>0.11684</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A382" s="1">
+        <v>44805</v>
+      </c>
+      <c r="B382" t="s">
+        <v>7</v>
+      </c>
+      <c r="C382" t="s">
+        <v>4</v>
+      </c>
+      <c r="D382" s="2">
+        <v>0.11684</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A383" s="1">
+        <v>44835</v>
+      </c>
+      <c r="B383" t="s">
+        <v>7</v>
+      </c>
+      <c r="C383" t="s">
+        <v>4</v>
+      </c>
+      <c r="D383" s="2">
+        <v>0.11684</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A384" s="1">
+        <v>44866</v>
+      </c>
+      <c r="B384" t="s">
+        <v>7</v>
+      </c>
+      <c r="C384" t="s">
+        <v>4</v>
+      </c>
+      <c r="D384" s="2">
+        <v>0.11684</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A385" s="1">
+        <v>44896</v>
+      </c>
+      <c r="B385" t="s">
+        <v>7</v>
+      </c>
+      <c r="C385" t="s">
+        <v>4</v>
+      </c>
+      <c r="D385" s="2">
+        <v>0.11684</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A386" s="1">
+        <v>44562</v>
+      </c>
+      <c r="B386" t="s">
+        <v>3</v>
+      </c>
+      <c r="D386" s="2">
+        <v>0.118161</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A387" s="1">
+        <v>44593</v>
+      </c>
+      <c r="B387" t="s">
+        <v>3</v>
+      </c>
+      <c r="D387" s="2">
+        <v>0.118161</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A388" s="1">
+        <v>44621</v>
+      </c>
+      <c r="B388" t="s">
+        <v>3</v>
+      </c>
+      <c r="D388" s="2">
+        <v>0.118161</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A389" s="1">
+        <v>44652</v>
+      </c>
+      <c r="B389" t="s">
+        <v>3</v>
+      </c>
+      <c r="D389" s="2">
+        <v>0.118161</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A390" s="1">
+        <v>44682</v>
+      </c>
+      <c r="B390" t="s">
+        <v>3</v>
+      </c>
+      <c r="D390" s="2">
+        <v>0.118161</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A391" s="1">
+        <v>44713</v>
+      </c>
+      <c r="B391" t="s">
+        <v>3</v>
+      </c>
+      <c r="D391" s="2">
+        <v>0.118161</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A392" s="1">
+        <v>44743</v>
+      </c>
+      <c r="B392" t="s">
+        <v>3</v>
+      </c>
+      <c r="D392" s="2">
+        <v>0.118161</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A393" s="1">
+        <v>44774</v>
+      </c>
+      <c r="B393" t="s">
+        <v>3</v>
+      </c>
+      <c r="D393" s="2">
+        <v>0.118161</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A394" s="1">
+        <v>44805</v>
+      </c>
+      <c r="B394" t="s">
+        <v>3</v>
+      </c>
+      <c r="D394" s="2">
+        <v>0.118161</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A395" s="1">
+        <v>44835</v>
+      </c>
+      <c r="B395" t="s">
+        <v>3</v>
+      </c>
+      <c r="D395" s="2">
+        <v>0.118161</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A396" s="1">
+        <v>44866</v>
+      </c>
+      <c r="B396" t="s">
+        <v>3</v>
+      </c>
+      <c r="D396" s="2">
+        <v>0.118161</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A397" s="1">
+        <v>44896</v>
+      </c>
+      <c r="B397" t="s">
+        <v>3</v>
+      </c>
+      <c r="D397" s="2">
+        <v>0.118161</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
